--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/26/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/26/FD_Curve.xlsx
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>2.20396</v>
+        <v>2.24424</v>
       </c>
       <c r="C4" t="n">
-        <v>2203.96</v>
+        <v>2244.24</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>2.27341</v>
+        <v>3.41298</v>
       </c>
       <c r="C5" t="n">
-        <v>2273.41</v>
+        <v>3412.98</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>0.12397</v>
       </c>
       <c r="B6" t="n">
-        <v>2.31619</v>
+        <v>3.49675</v>
       </c>
       <c r="C6" t="n">
-        <v>2316.19</v>
+        <v>3496.75</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0.154946</v>
       </c>
       <c r="B7" t="n">
-        <v>2.35411</v>
+        <v>3.54702</v>
       </c>
       <c r="C7" t="n">
-        <v>2354.11</v>
+        <v>3547.02</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.185922</v>
       </c>
       <c r="B8" t="n">
-        <v>2.40532</v>
+        <v>3.58408</v>
       </c>
       <c r="C8" t="n">
-        <v>2405.32</v>
+        <v>3584.08</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>0.216899</v>
       </c>
       <c r="B9" t="n">
-        <v>2.44008</v>
+        <v>3.60475</v>
       </c>
       <c r="C9" t="n">
-        <v>2440.08</v>
+        <v>3604.75</v>
       </c>
     </row>
     <row r="10">
@@ -543,43 +543,43 @@
         <v>0.247875</v>
       </c>
       <c r="B10" t="n">
-        <v>2.47397</v>
+        <v>3.63124</v>
       </c>
       <c r="C10" t="n">
-        <v>2473.97</v>
+        <v>3631.24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278804</v>
+        <v>0.278803</v>
       </c>
       <c r="B11" t="n">
-        <v>2.50429</v>
+        <v>3.64538</v>
       </c>
       <c r="C11" t="n">
-        <v>2504.29</v>
+        <v>3645.38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309729</v>
+        <v>0.309728</v>
       </c>
       <c r="B12" t="n">
-        <v>2.53537</v>
+        <v>3.66433</v>
       </c>
       <c r="C12" t="n">
-        <v>2535.37</v>
+        <v>3664.33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340654</v>
+        <v>0.340653</v>
       </c>
       <c r="B13" t="n">
-        <v>2.56312</v>
+        <v>3.68228</v>
       </c>
       <c r="C13" t="n">
-        <v>2563.12</v>
+        <v>3682.28</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>0.371579</v>
       </c>
       <c r="B14" t="n">
-        <v>2.58913</v>
+        <v>3.69859</v>
       </c>
       <c r="C14" t="n">
-        <v>2589.13</v>
+        <v>3698.59</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>0.402504</v>
       </c>
       <c r="B15" t="n">
-        <v>2.61524</v>
+        <v>3.71361</v>
       </c>
       <c r="C15" t="n">
-        <v>2615.24</v>
+        <v>3713.61</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>0.433429</v>
       </c>
       <c r="B16" t="n">
-        <v>2.63996</v>
+        <v>3.7267</v>
       </c>
       <c r="C16" t="n">
-        <v>2639.96</v>
+        <v>3726.7</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>0.464349</v>
       </c>
       <c r="B17" t="n">
-        <v>2.66391</v>
+        <v>3.73977</v>
       </c>
       <c r="C17" t="n">
-        <v>2663.91</v>
+        <v>3739.77</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>0.495274</v>
       </c>
       <c r="B18" t="n">
-        <v>2.68695</v>
+        <v>3.75184</v>
       </c>
       <c r="C18" t="n">
-        <v>2686.95</v>
+        <v>3751.84</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>0.526199</v>
       </c>
       <c r="B19" t="n">
-        <v>2.70924</v>
+        <v>3.76333</v>
       </c>
       <c r="C19" t="n">
-        <v>2709.24</v>
+        <v>3763.33</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>0.557124</v>
       </c>
       <c r="B20" t="n">
-        <v>2.73077</v>
+        <v>3.7742</v>
       </c>
       <c r="C20" t="n">
-        <v>2730.77</v>
+        <v>3774.2</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>0.588049</v>
       </c>
       <c r="B21" t="n">
-        <v>2.75188</v>
+        <v>3.78448</v>
       </c>
       <c r="C21" t="n">
-        <v>2751.88</v>
+        <v>3784.48</v>
       </c>
     </row>
     <row r="22">
@@ -675,21 +675,21 @@
         <v>0.6190909999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>2.77256</v>
+        <v>3.79431</v>
       </c>
       <c r="C22" t="n">
-        <v>2772.56</v>
+        <v>3794.31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650269</v>
+        <v>0.650268</v>
       </c>
       <c r="B23" t="n">
-        <v>2.79275</v>
+        <v>3.80372</v>
       </c>
       <c r="C23" t="n">
-        <v>2792.75</v>
+        <v>3803.72</v>
       </c>
     </row>
     <row r="24">
@@ -697,21 +697,21 @@
         <v>0.681441</v>
       </c>
       <c r="B24" t="n">
-        <v>2.81254</v>
+        <v>3.81263</v>
       </c>
       <c r="C24" t="n">
-        <v>2812.54</v>
+        <v>3812.63</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712614</v>
+        <v>0.7126130000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>2.83182</v>
+        <v>3.82121</v>
       </c>
       <c r="C25" t="n">
-        <v>2831.82</v>
+        <v>3821.21</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>0.743791</v>
       </c>
       <c r="B26" t="n">
-        <v>2.85074</v>
+        <v>3.82936</v>
       </c>
       <c r="C26" t="n">
-        <v>2850.74</v>
+        <v>3829.36</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>0.774963</v>
       </c>
       <c r="B27" t="n">
-        <v>2.86929</v>
+        <v>3.83713</v>
       </c>
       <c r="C27" t="n">
-        <v>2869.29</v>
+        <v>3837.13</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>0.806136</v>
       </c>
       <c r="B28" t="n">
-        <v>2.88745</v>
+        <v>3.84457</v>
       </c>
       <c r="C28" t="n">
-        <v>2887.45</v>
+        <v>3844.57</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>0.837313</v>
       </c>
       <c r="B29" t="n">
-        <v>2.90525</v>
+        <v>3.8517</v>
       </c>
       <c r="C29" t="n">
-        <v>2905.25</v>
+        <v>3851.7</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>0.868485</v>
       </c>
       <c r="B30" t="n">
-        <v>2.92271</v>
+        <v>3.85851</v>
       </c>
       <c r="C30" t="n">
-        <v>2922.71</v>
+        <v>3858.51</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>0.899658</v>
       </c>
       <c r="B31" t="n">
-        <v>2.93987</v>
+        <v>3.86503</v>
       </c>
       <c r="C31" t="n">
-        <v>2939.87</v>
+        <v>3865.03</v>
       </c>
     </row>
     <row r="32">
@@ -785,780 +785,780 @@
         <v>0.930835</v>
       </c>
       <c r="B32" t="n">
-        <v>2.95682</v>
+        <v>3.87126</v>
       </c>
       <c r="C32" t="n">
-        <v>2956.82</v>
+        <v>3871.26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962008</v>
+        <v>0.9620069999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>2.97349</v>
+        <v>3.87721</v>
       </c>
       <c r="C33" t="n">
-        <v>2973.49</v>
+        <v>3877.21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993185</v>
+        <v>0.993184</v>
       </c>
       <c r="B34" t="n">
-        <v>2.98984</v>
+        <v>3.88289</v>
       </c>
       <c r="C34" t="n">
-        <v>2989.84</v>
+        <v>3882.89</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02422</v>
+        <v>1.02448</v>
       </c>
       <c r="B35" t="n">
-        <v>3.0059</v>
+        <v>3.88833</v>
       </c>
       <c r="C35" t="n">
-        <v>3005.9</v>
+        <v>3888.33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05519</v>
+        <v>1.05586</v>
       </c>
       <c r="B36" t="n">
-        <v>3.02167</v>
+        <v>3.8935</v>
       </c>
       <c r="C36" t="n">
-        <v>3021.67</v>
+        <v>3893.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08616</v>
+        <v>1.08725</v>
       </c>
       <c r="B37" t="n">
-        <v>3.03728</v>
+        <v>3.89845</v>
       </c>
       <c r="C37" t="n">
-        <v>3037.28</v>
+        <v>3898.45</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11712</v>
+        <v>1.11862</v>
       </c>
       <c r="B38" t="n">
-        <v>3.05271</v>
+        <v>3.90317</v>
       </c>
       <c r="C38" t="n">
-        <v>3052.71</v>
+        <v>3903.17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14809</v>
+        <v>1.15</v>
       </c>
       <c r="B39" t="n">
-        <v>3.06795</v>
+        <v>3.90767</v>
       </c>
       <c r="C39" t="n">
-        <v>3067.95</v>
+        <v>3907.67</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17906</v>
+        <v>1.18139</v>
       </c>
       <c r="B40" t="n">
-        <v>3.08304</v>
+        <v>3.91197</v>
       </c>
       <c r="C40" t="n">
-        <v>3083.04</v>
+        <v>3911.97</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21003</v>
+        <v>1.21277</v>
       </c>
       <c r="B41" t="n">
-        <v>3.09787</v>
+        <v>3.91605</v>
       </c>
       <c r="C41" t="n">
-        <v>3097.87</v>
+        <v>3916.05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24099</v>
+        <v>1.24415</v>
       </c>
       <c r="B42" t="n">
-        <v>3.11248</v>
+        <v>3.91992</v>
       </c>
       <c r="C42" t="n">
-        <v>3112.48</v>
+        <v>3919.92</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27196</v>
+        <v>1.27553</v>
       </c>
       <c r="B43" t="n">
-        <v>3.12686</v>
+        <v>3.92359</v>
       </c>
       <c r="C43" t="n">
-        <v>3126.86</v>
+        <v>3923.59</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30293</v>
+        <v>1.30691</v>
       </c>
       <c r="B44" t="n">
-        <v>3.14107</v>
+        <v>3.92707</v>
       </c>
       <c r="C44" t="n">
-        <v>3141.07</v>
+        <v>3927.07</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.3339</v>
+        <v>1.33829</v>
       </c>
       <c r="B45" t="n">
-        <v>3.15515</v>
+        <v>3.93036</v>
       </c>
       <c r="C45" t="n">
-        <v>3155.15</v>
+        <v>3930.36</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36487</v>
+        <v>1.36967</v>
       </c>
       <c r="B46" t="n">
-        <v>3.16908</v>
+        <v>3.93347</v>
       </c>
       <c r="C46" t="n">
-        <v>3169.08</v>
+        <v>3933.47</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39583</v>
+        <v>1.40105</v>
       </c>
       <c r="B47" t="n">
-        <v>3.18287</v>
+        <v>3.93639</v>
       </c>
       <c r="C47" t="n">
-        <v>3182.87</v>
+        <v>3936.39</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.4268</v>
+        <v>1.43243</v>
       </c>
       <c r="B48" t="n">
-        <v>3.1965</v>
+        <v>3.93914</v>
       </c>
       <c r="C48" t="n">
-        <v>3196.5</v>
+        <v>3939.14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45777</v>
+        <v>1.46381</v>
       </c>
       <c r="B49" t="n">
-        <v>3.21003</v>
+        <v>3.94169</v>
       </c>
       <c r="C49" t="n">
-        <v>3210.03</v>
+        <v>3941.69</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48874</v>
+        <v>1.49519</v>
       </c>
       <c r="B50" t="n">
-        <v>3.22337</v>
+        <v>3.94409</v>
       </c>
       <c r="C50" t="n">
-        <v>3223.37</v>
+        <v>3944.09</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.51971</v>
+        <v>1.52657</v>
       </c>
       <c r="B51" t="n">
-        <v>3.23657</v>
+        <v>3.9463</v>
       </c>
       <c r="C51" t="n">
-        <v>3236.57</v>
+        <v>3946.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55067</v>
+        <v>1.55795</v>
       </c>
       <c r="B52" t="n">
-        <v>3.24961</v>
+        <v>3.94834</v>
       </c>
       <c r="C52" t="n">
-        <v>3249.61</v>
+        <v>3948.34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58164</v>
+        <v>1.58933</v>
       </c>
       <c r="B53" t="n">
-        <v>3.26251</v>
+        <v>3.9502</v>
       </c>
       <c r="C53" t="n">
-        <v>3262.51</v>
+        <v>3950.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61261</v>
+        <v>1.62072</v>
       </c>
       <c r="B54" t="n">
-        <v>3.27527</v>
+        <v>3.95191</v>
       </c>
       <c r="C54" t="n">
-        <v>3275.27</v>
+        <v>3951.91</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64357</v>
+        <v>1.65209</v>
       </c>
       <c r="B55" t="n">
-        <v>3.28792</v>
+        <v>3.95343</v>
       </c>
       <c r="C55" t="n">
-        <v>3287.92</v>
+        <v>3953.43</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67455</v>
+        <v>1.68348</v>
       </c>
       <c r="B56" t="n">
-        <v>3.30045</v>
+        <v>3.95477</v>
       </c>
       <c r="C56" t="n">
-        <v>3300.45</v>
+        <v>3954.77</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70551</v>
+        <v>1.71486</v>
       </c>
       <c r="B57" t="n">
-        <v>3.31292</v>
+        <v>3.95594</v>
       </c>
       <c r="C57" t="n">
-        <v>3312.92</v>
+        <v>3955.94</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73648</v>
+        <v>1.74624</v>
       </c>
       <c r="B58" t="n">
-        <v>3.32523</v>
+        <v>3.95695</v>
       </c>
       <c r="C58" t="n">
-        <v>3325.23</v>
+        <v>3956.95</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76745</v>
+        <v>1.77744</v>
       </c>
       <c r="B59" t="n">
-        <v>3.33741</v>
+        <v>3.95777</v>
       </c>
       <c r="C59" t="n">
-        <v>3337.41</v>
+        <v>3957.77</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79841</v>
+        <v>1.80841</v>
       </c>
       <c r="B60" t="n">
-        <v>3.34951</v>
+        <v>3.95843</v>
       </c>
       <c r="C60" t="n">
-        <v>3349.51</v>
+        <v>3958.43</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82938</v>
+        <v>1.83937</v>
       </c>
       <c r="B61" t="n">
-        <v>3.36151</v>
+        <v>3.95889</v>
       </c>
       <c r="C61" t="n">
-        <v>3361.51</v>
+        <v>3958.89</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86035</v>
+        <v>1.87034</v>
       </c>
       <c r="B62" t="n">
-        <v>3.37339</v>
+        <v>3.95919</v>
       </c>
       <c r="C62" t="n">
-        <v>3373.39</v>
+        <v>3959.19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89132</v>
+        <v>1.90131</v>
       </c>
       <c r="B63" t="n">
-        <v>3.38514</v>
+        <v>3.9593</v>
       </c>
       <c r="C63" t="n">
-        <v>3385.14</v>
+        <v>3959.3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92229</v>
+        <v>1.93228</v>
       </c>
       <c r="B64" t="n">
-        <v>3.39682</v>
+        <v>3.95924</v>
       </c>
       <c r="C64" t="n">
-        <v>3396.82</v>
+        <v>3959.24</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95325</v>
+        <v>1.96325</v>
       </c>
       <c r="B65" t="n">
-        <v>3.4084</v>
+        <v>3.95897</v>
       </c>
       <c r="C65" t="n">
-        <v>3408.4</v>
+        <v>3958.97</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98422</v>
+        <v>1.99421</v>
       </c>
       <c r="B66" t="n">
-        <v>3.41981</v>
+        <v>3.95851</v>
       </c>
       <c r="C66" t="n">
-        <v>3419.81</v>
+        <v>3958.51</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01511</v>
+        <v>2.02495</v>
       </c>
       <c r="B67" t="n">
-        <v>3.4311</v>
+        <v>3.95786</v>
       </c>
       <c r="C67" t="n">
-        <v>3431.1</v>
+        <v>3957.86</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04567</v>
+        <v>2.0555</v>
       </c>
       <c r="B68" t="n">
-        <v>3.44236</v>
+        <v>3.95699</v>
       </c>
       <c r="C68" t="n">
-        <v>3442.36</v>
+        <v>3956.99</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07622</v>
+        <v>2.08605</v>
       </c>
       <c r="B69" t="n">
-        <v>3.45353</v>
+        <v>3.95587</v>
       </c>
       <c r="C69" t="n">
-        <v>3453.53</v>
+        <v>3955.87</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10678</v>
+        <v>2.11661</v>
       </c>
       <c r="B70" t="n">
-        <v>3.46455</v>
+        <v>3.95452</v>
       </c>
       <c r="C70" t="n">
-        <v>3464.55</v>
+        <v>3954.52</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13733</v>
+        <v>2.14716</v>
       </c>
       <c r="B71" t="n">
-        <v>3.47555</v>
+        <v>3.95296</v>
       </c>
       <c r="C71" t="n">
-        <v>3475.55</v>
+        <v>3952.96</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.16788</v>
+        <v>2.17772</v>
       </c>
       <c r="B72" t="n">
-        <v>3.48642</v>
+        <v>3.9512</v>
       </c>
       <c r="C72" t="n">
-        <v>3486.42</v>
+        <v>3951.2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.19844</v>
+        <v>2.20827</v>
       </c>
       <c r="B73" t="n">
-        <v>3.49719</v>
+        <v>3.94923</v>
       </c>
       <c r="C73" t="n">
-        <v>3497.19</v>
+        <v>3949.23</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.229</v>
+        <v>2.23883</v>
       </c>
       <c r="B74" t="n">
-        <v>3.50788</v>
+        <v>3.94705</v>
       </c>
       <c r="C74" t="n">
-        <v>3507.88</v>
+        <v>3947.05</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.25955</v>
+        <v>2.26938</v>
       </c>
       <c r="B75" t="n">
-        <v>3.51847</v>
+        <v>3.94467</v>
       </c>
       <c r="C75" t="n">
-        <v>3518.47</v>
+        <v>3944.67</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29011</v>
+        <v>2.29994</v>
       </c>
       <c r="B76" t="n">
-        <v>3.52895</v>
+        <v>3.94204</v>
       </c>
       <c r="C76" t="n">
-        <v>3528.95</v>
+        <v>3942.04</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32066</v>
+        <v>2.33049</v>
       </c>
       <c r="B77" t="n">
-        <v>3.53929</v>
+        <v>3.93921</v>
       </c>
       <c r="C77" t="n">
-        <v>3539.29</v>
+        <v>3939.21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35122</v>
+        <v>2.36105</v>
       </c>
       <c r="B78" t="n">
-        <v>3.54951</v>
+        <v>3.93616</v>
       </c>
       <c r="C78" t="n">
-        <v>3549.51</v>
+        <v>3936.16</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38177</v>
+        <v>2.3916</v>
       </c>
       <c r="B79" t="n">
-        <v>3.55972</v>
+        <v>3.93284</v>
       </c>
       <c r="C79" t="n">
-        <v>3559.72</v>
+        <v>3932.84</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41232</v>
+        <v>2.42273</v>
       </c>
       <c r="B80" t="n">
-        <v>3.56971</v>
+        <v>3.92927</v>
       </c>
       <c r="C80" t="n">
-        <v>3569.71</v>
+        <v>3929.27</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44377</v>
+        <v>2.45431</v>
       </c>
       <c r="B81" t="n">
-        <v>3.57991</v>
+        <v>3.92539</v>
       </c>
       <c r="C81" t="n">
-        <v>3579.91</v>
+        <v>3925.39</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47534</v>
+        <v>2.48588</v>
       </c>
       <c r="B82" t="n">
-        <v>3.59012</v>
+        <v>3.92123</v>
       </c>
       <c r="C82" t="n">
-        <v>3590.12</v>
+        <v>3921.23</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.50692</v>
+        <v>2.51745</v>
       </c>
       <c r="B83" t="n">
-        <v>3.60016</v>
+        <v>3.91678</v>
       </c>
       <c r="C83" t="n">
-        <v>3600.16</v>
+        <v>3916.78</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.53849</v>
+        <v>2.54903</v>
       </c>
       <c r="B84" t="n">
-        <v>3.61006</v>
+        <v>3.91208</v>
       </c>
       <c r="C84" t="n">
-        <v>3610.06</v>
+        <v>3912.08</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57007</v>
+        <v>2.5806</v>
       </c>
       <c r="B85" t="n">
-        <v>3.61997</v>
+        <v>3.9071</v>
       </c>
       <c r="C85" t="n">
-        <v>3619.97</v>
+        <v>3907.1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60164</v>
+        <v>2.61217</v>
       </c>
       <c r="B86" t="n">
-        <v>3.62963</v>
+        <v>3.9018</v>
       </c>
       <c r="C86" t="n">
-        <v>3629.63</v>
+        <v>3901.8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63321</v>
+        <v>2.64375</v>
       </c>
       <c r="B87" t="n">
-        <v>3.63932</v>
+        <v>3.89595</v>
       </c>
       <c r="C87" t="n">
-        <v>3639.32</v>
+        <v>3895.95</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66479</v>
+        <v>2.67532</v>
       </c>
       <c r="B88" t="n">
-        <v>3.6489</v>
+        <v>3.88969</v>
       </c>
       <c r="C88" t="n">
-        <v>3648.9</v>
+        <v>3889.69</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69636</v>
+        <v>2.70649</v>
       </c>
       <c r="B89" t="n">
-        <v>3.65833</v>
+        <v>3.88312</v>
       </c>
       <c r="C89" t="n">
-        <v>3658.33</v>
+        <v>3883.12</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72793</v>
+        <v>2.73721</v>
       </c>
       <c r="B90" t="n">
-        <v>3.66774</v>
+        <v>3.87625</v>
       </c>
       <c r="C90" t="n">
-        <v>3667.74</v>
+        <v>3876.25</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.75951</v>
+        <v>2.76793</v>
       </c>
       <c r="B91" t="n">
-        <v>3.67707</v>
+        <v>3.86907</v>
       </c>
       <c r="C91" t="n">
-        <v>3677.07</v>
+        <v>3869.07</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79108</v>
+        <v>2.79865</v>
       </c>
       <c r="B92" t="n">
-        <v>3.6863</v>
+        <v>3.86148</v>
       </c>
       <c r="C92" t="n">
-        <v>3686.3</v>
+        <v>3861.48</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82265</v>
+        <v>2.82937</v>
       </c>
       <c r="B93" t="n">
-        <v>3.69547</v>
+        <v>3.85352</v>
       </c>
       <c r="C93" t="n">
-        <v>3695.47</v>
+        <v>3853.52</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85422</v>
+        <v>2.86009</v>
       </c>
       <c r="B94" t="n">
-        <v>3.70459</v>
+        <v>3.84516</v>
       </c>
       <c r="C94" t="n">
-        <v>3704.59</v>
+        <v>3845.16</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.8858</v>
+        <v>2.89081</v>
       </c>
       <c r="B95" t="n">
-        <v>3.71361</v>
+        <v>3.83632</v>
       </c>
       <c r="C95" t="n">
-        <v>3713.61</v>
+        <v>3836.32</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91737</v>
+        <v>2.92153</v>
       </c>
       <c r="B96" t="n">
-        <v>3.72261</v>
+        <v>3.82704</v>
       </c>
       <c r="C96" t="n">
-        <v>3722.61</v>
+        <v>3827.04</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94894</v>
+        <v>2.95225</v>
       </c>
       <c r="B97" t="n">
-        <v>3.73157</v>
+        <v>3.81725</v>
       </c>
       <c r="C97" t="n">
-        <v>3731.57</v>
+        <v>3817.25</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98052</v>
+        <v>2.98297</v>
       </c>
       <c r="B98" t="n">
-        <v>3.74046</v>
+        <v>3.80695</v>
       </c>
       <c r="C98" t="n">
-        <v>3740.46</v>
+        <v>3806.95</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01209</v>
+        <v>3.01369</v>
       </c>
       <c r="B99" t="n">
-        <v>3.74933</v>
+        <v>3.79603</v>
       </c>
       <c r="C99" t="n">
-        <v>3749.33</v>
+        <v>3796.03</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04366</v>
+        <v>3.04441</v>
       </c>
       <c r="B100" t="n">
-        <v>3.7581</v>
+        <v>3.78445</v>
       </c>
       <c r="C100" t="n">
-        <v>3758.1</v>
+        <v>3784.45</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07524</v>
+        <v>3.07513</v>
       </c>
       <c r="B101" t="n">
-        <v>3.76686</v>
+        <v>3.77225</v>
       </c>
       <c r="C101" t="n">
-        <v>3766.86</v>
+        <v>3772.25</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10681</v>
+        <v>3.10528</v>
       </c>
       <c r="B102" t="n">
-        <v>3.77549</v>
+        <v>3.75943</v>
       </c>
       <c r="C102" t="n">
-        <v>3775.49</v>
+        <v>3759.43</v>
       </c>
     </row>
   </sheetData>
